--- a/currentbuild/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
